--- a/Running projects/ISM Saddar/Imtiaz Saddar_Consolidate BOQ_Final.xlsx
+++ b/Running projects/ISM Saddar/Imtiaz Saddar_Consolidate BOQ_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\ISM Saddar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E6845-0B1E-427F-8AE2-2FD99E7D8A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA098490-A47D-4B80-A7DC-E2757E22AB79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="502">
   <si>
     <t>Job.</t>
   </si>
@@ -1647,12 +1647,18 @@
   <si>
     <t>Total Labour Cost of With Sale Tax</t>
   </si>
+  <si>
+    <t xml:space="preserve">Advance </t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
@@ -1660,6 +1666,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -3351,7 +3358,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="755">
+  <cellXfs count="758">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -5325,6 +5332,9 @@
     <xf numFmtId="167" fontId="26" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6089,10 +6099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6270,6 +6280,36 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="719">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="720">
+        <f>D17*40%</f>
+        <v>4910103.4841400003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>501</v>
+      </c>
+      <c r="C24" s="721">
+        <v>6.6087000000000007E-2</v>
+      </c>
+      <c r="D24" s="720">
+        <f>D22*6.6087%</f>
+        <v>324494.00895636017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="720">
+        <f>D22-D24</f>
+        <v>4585609.4751836397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.2" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
@@ -7242,23 +7282,23 @@
       <c r="B7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="721" t="s">
+      <c r="F7" s="724" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="722"/>
-      <c r="H7" s="723" t="s">
+      <c r="G7" s="725"/>
+      <c r="H7" s="726" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="724"/>
+      <c r="I7" s="727"/>
       <c r="J7" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="725" t="s">
+      <c r="A8" s="728" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="726"/>
+      <c r="B8" s="729"/>
       <c r="C8" s="28" t="s">
         <v>83</v>
       </c>
@@ -14145,88 +14185,88 @@
       <c r="J254" s="20"/>
     </row>
     <row r="255" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="720" t="s">
+      <c r="A255" s="723" t="s">
         <v>117</v>
       </c>
-      <c r="B255" s="720"/>
-      <c r="C255" s="720"/>
-      <c r="D255" s="720"/>
-      <c r="E255" s="720"/>
-      <c r="F255" s="720"/>
-      <c r="G255" s="720"/>
-      <c r="H255" s="720"/>
-      <c r="I255" s="720"/>
-      <c r="J255" s="720"/>
+      <c r="B255" s="723"/>
+      <c r="C255" s="723"/>
+      <c r="D255" s="723"/>
+      <c r="E255" s="723"/>
+      <c r="F255" s="723"/>
+      <c r="G255" s="723"/>
+      <c r="H255" s="723"/>
+      <c r="I255" s="723"/>
+      <c r="J255" s="723"/>
     </row>
     <row r="256" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="719" t="s">
+      <c r="A256" s="722" t="s">
         <v>150</v>
       </c>
-      <c r="B256" s="719"/>
-      <c r="C256" s="719"/>
-      <c r="D256" s="719"/>
-      <c r="E256" s="719"/>
-      <c r="F256" s="719"/>
-      <c r="G256" s="719"/>
-      <c r="H256" s="719"/>
-      <c r="I256" s="719"/>
-      <c r="J256" s="719"/>
+      <c r="B256" s="722"/>
+      <c r="C256" s="722"/>
+      <c r="D256" s="722"/>
+      <c r="E256" s="722"/>
+      <c r="F256" s="722"/>
+      <c r="G256" s="722"/>
+      <c r="H256" s="722"/>
+      <c r="I256" s="722"/>
+      <c r="J256" s="722"/>
     </row>
     <row r="257" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="719" t="s">
+      <c r="A257" s="722" t="s">
         <v>151</v>
       </c>
-      <c r="B257" s="719"/>
-      <c r="C257" s="719"/>
-      <c r="D257" s="719"/>
-      <c r="E257" s="719"/>
-      <c r="F257" s="719"/>
-      <c r="G257" s="719"/>
-      <c r="H257" s="719"/>
-      <c r="I257" s="719"/>
-      <c r="J257" s="719"/>
+      <c r="B257" s="722"/>
+      <c r="C257" s="722"/>
+      <c r="D257" s="722"/>
+      <c r="E257" s="722"/>
+      <c r="F257" s="722"/>
+      <c r="G257" s="722"/>
+      <c r="H257" s="722"/>
+      <c r="I257" s="722"/>
+      <c r="J257" s="722"/>
     </row>
     <row r="258" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="719" t="s">
+      <c r="A258" s="722" t="s">
         <v>149</v>
       </c>
-      <c r="B258" s="719"/>
-      <c r="C258" s="719"/>
-      <c r="D258" s="719"/>
-      <c r="E258" s="719"/>
-      <c r="F258" s="719"/>
-      <c r="G258" s="719"/>
-      <c r="H258" s="719"/>
-      <c r="I258" s="719"/>
-      <c r="J258" s="719"/>
+      <c r="B258" s="722"/>
+      <c r="C258" s="722"/>
+      <c r="D258" s="722"/>
+      <c r="E258" s="722"/>
+      <c r="F258" s="722"/>
+      <c r="G258" s="722"/>
+      <c r="H258" s="722"/>
+      <c r="I258" s="722"/>
+      <c r="J258" s="722"/>
     </row>
     <row r="259" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="720" t="s">
+      <c r="A259" s="723" t="s">
         <v>116</v>
       </c>
-      <c r="B259" s="720"/>
-      <c r="C259" s="720"/>
-      <c r="D259" s="720"/>
-      <c r="E259" s="720"/>
-      <c r="F259" s="720"/>
-      <c r="G259" s="720"/>
-      <c r="H259" s="720"/>
-      <c r="I259" s="720"/>
-      <c r="J259" s="720"/>
+      <c r="B259" s="723"/>
+      <c r="C259" s="723"/>
+      <c r="D259" s="723"/>
+      <c r="E259" s="723"/>
+      <c r="F259" s="723"/>
+      <c r="G259" s="723"/>
+      <c r="H259" s="723"/>
+      <c r="I259" s="723"/>
+      <c r="J259" s="723"/>
     </row>
     <row r="260" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="720" t="s">
+      <c r="A260" s="723" t="s">
         <v>115</v>
       </c>
-      <c r="B260" s="720"/>
-      <c r="C260" s="720"/>
-      <c r="D260" s="720"/>
-      <c r="E260" s="720"/>
-      <c r="F260" s="720"/>
-      <c r="G260" s="720"/>
-      <c r="H260" s="720"/>
-      <c r="I260" s="720"/>
-      <c r="J260" s="720"/>
+      <c r="B260" s="723"/>
+      <c r="C260" s="723"/>
+      <c r="D260" s="723"/>
+      <c r="E260" s="723"/>
+      <c r="F260" s="723"/>
+      <c r="G260" s="723"/>
+      <c r="H260" s="723"/>
+      <c r="I260" s="723"/>
+      <c r="J260" s="723"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C269" s="163"/>
@@ -14759,44 +14799,44 @@
       <c r="C6" s="283"/>
       <c r="D6" s="294"/>
       <c r="E6" s="279"/>
-      <c r="F6" s="728"/>
-      <c r="G6" s="728"/>
-      <c r="H6" s="728"/>
-      <c r="I6" s="728"/>
-      <c r="J6" s="728"/>
+      <c r="F6" s="731"/>
+      <c r="G6" s="731"/>
+      <c r="H6" s="731"/>
+      <c r="I6" s="731"/>
+      <c r="J6" s="731"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="729" t="s">
+      <c r="A7" s="732" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="730"/>
-      <c r="C7" s="733" t="s">
+      <c r="B7" s="733"/>
+      <c r="C7" s="736" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="733" t="s">
+      <c r="D7" s="736" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="735" t="s">
+      <c r="E7" s="738" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="737" t="s">
+      <c r="F7" s="740" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="738"/>
-      <c r="H7" s="737" t="s">
+      <c r="G7" s="741"/>
+      <c r="H7" s="740" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="739"/>
+      <c r="I7" s="742"/>
       <c r="J7" s="295" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="300" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="731"/>
-      <c r="B8" s="732"/>
-      <c r="C8" s="734"/>
-      <c r="D8" s="734"/>
-      <c r="E8" s="736"/>
+      <c r="A8" s="734"/>
+      <c r="B8" s="735"/>
+      <c r="C8" s="737"/>
+      <c r="D8" s="737"/>
+      <c r="E8" s="739"/>
       <c r="F8" s="296" t="s">
         <v>89</v>
       </c>
@@ -16490,10 +16530,10 @@
       <c r="J77" s="286"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="727" t="s">
+      <c r="A78" s="730" t="s">
         <v>257</v>
       </c>
-      <c r="B78" s="727"/>
+      <c r="B78" s="730"/>
       <c r="C78"/>
       <c r="D78" s="286"/>
       <c r="E78" s="286"/>
@@ -16521,17 +16561,17 @@
       <c r="A80" s="401" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="720" t="s">
+      <c r="B80" s="723" t="s">
         <v>260</v>
       </c>
-      <c r="C80" s="720"/>
-      <c r="D80" s="720"/>
-      <c r="E80" s="720"/>
-      <c r="F80" s="720"/>
-      <c r="G80" s="720"/>
-      <c r="H80" s="720"/>
-      <c r="I80" s="720"/>
-      <c r="J80" s="720"/>
+      <c r="C80" s="723"/>
+      <c r="D80" s="723"/>
+      <c r="E80" s="723"/>
+      <c r="F80" s="723"/>
+      <c r="G80" s="723"/>
+      <c r="H80" s="723"/>
+      <c r="I80" s="723"/>
+      <c r="J80" s="723"/>
       <c r="K80" s="403"/>
       <c r="L80" s="403"/>
       <c r="M80" s="403"/>
@@ -16548,17 +16588,17 @@
       <c r="A81" s="401" t="s">
         <v>258</v>
       </c>
-      <c r="B81" s="720" t="s">
+      <c r="B81" s="723" t="s">
         <v>261</v>
       </c>
-      <c r="C81" s="720"/>
-      <c r="D81" s="720"/>
-      <c r="E81" s="720"/>
-      <c r="F81" s="720"/>
-      <c r="G81" s="720"/>
-      <c r="H81" s="720"/>
-      <c r="I81" s="720"/>
-      <c r="J81" s="720"/>
+      <c r="C81" s="723"/>
+      <c r="D81" s="723"/>
+      <c r="E81" s="723"/>
+      <c r="F81" s="723"/>
+      <c r="G81" s="723"/>
+      <c r="H81" s="723"/>
+      <c r="I81" s="723"/>
+      <c r="J81" s="723"/>
       <c r="K81" s="403"/>
       <c r="L81" s="403"/>
       <c r="M81" s="403"/>
@@ -16722,11 +16762,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="409" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="745" t="s">
+      <c r="A1" s="748" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="745"/>
-      <c r="C1" s="745"/>
+      <c r="B1" s="748"/>
+      <c r="C1" s="748"/>
       <c r="D1" s="406"/>
       <c r="E1" s="406"/>
       <c r="F1" s="406"/>
@@ -16736,11 +16776,11 @@
       <c r="J1" s="408"/>
     </row>
     <row r="2" spans="1:10" s="409" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="746" t="s">
+      <c r="A2" s="749" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="746"/>
-      <c r="C2" s="746"/>
+      <c r="B2" s="749"/>
+      <c r="C2" s="749"/>
       <c r="D2" s="406"/>
       <c r="E2" s="406"/>
       <c r="F2" s="406"/>
@@ -16808,37 +16848,37 @@
       <c r="J6" s="408"/>
     </row>
     <row r="7" spans="1:10" s="409" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="747" t="s">
+      <c r="A7" s="750" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="748"/>
-      <c r="C7" s="751" t="s">
+      <c r="B7" s="751"/>
+      <c r="C7" s="754" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="751" t="s">
+      <c r="D7" s="754" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="753" t="s">
+      <c r="E7" s="756" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="740" t="s">
+      <c r="F7" s="743" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="741"/>
-      <c r="H7" s="740" t="s">
+      <c r="G7" s="744"/>
+      <c r="H7" s="743" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="742"/>
+      <c r="I7" s="745"/>
       <c r="J7" s="421" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="409" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="749"/>
-      <c r="B8" s="750"/>
-      <c r="C8" s="752"/>
-      <c r="D8" s="752"/>
-      <c r="E8" s="754"/>
+      <c r="A8" s="752"/>
+      <c r="B8" s="753"/>
+      <c r="C8" s="755"/>
+      <c r="D8" s="755"/>
+      <c r="E8" s="757"/>
       <c r="F8" s="298" t="s">
         <v>89</v>
       </c>
@@ -19172,8 +19212,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" s="409" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="743"/>
-      <c r="B104" s="744"/>
+      <c r="A104" s="746"/>
+      <c r="B104" s="747"/>
       <c r="C104" s="518" t="s">
         <v>295</v>
       </c>
